--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficer.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficer.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8385A58B-F606-4A1B-B225-F91F98C0CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A2DA64-B43B-4860-A4D9-7DDF3A55C096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="處理說明" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -106,10 +107,6 @@
   <si>
     <t>協辦等級</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpNo,EffectiveDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PfCoOfficer</t>
@@ -349,6 +346,18 @@
     <t>輸入Y or spaces
 Y:通過</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.該員工代號資料存在時，新增時需檢核生效日及停效日區間需與原生效日與停效日區間外</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpNo,EffectiveDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.生效日不可修改，需先刪除再新增</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -518,7 +527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -534,10 +543,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -549,9 +558,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -563,9 +569,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -963,28 +966,28 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.88671875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -994,78 +997,78 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1084,301 +1087,301 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="A9" s="20">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>3</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="25">
+        <v>8</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>4</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="25">
+        <v>6</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>5</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="25">
+        <v>6</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>6</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="25">
+        <v>6</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>7</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="25">
+        <v>20</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="22">
+        <v>8</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="25">
+        <v>20</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="22">
+        <v>9</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="25">
+        <v>20</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>10</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>11</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>12</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <v>13</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>14</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
-        <v>2</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
-        <v>3</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="27">
-        <v>8</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>4</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="27">
-        <v>6</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
-        <v>5</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="27">
-        <v>6</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
-        <v>6</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="27">
-        <v>6</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
-        <v>7</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="27">
-        <v>20</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
-        <v>8</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="27">
-        <v>20</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
-        <v>9</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="27">
-        <v>20</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
-        <v>10</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="23">
-        <v>1</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
-        <v>11</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="23">
-        <v>1</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
-        <v>12</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="C22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
-        <v>13</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>15</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
-        <v>14</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
-        <v>15</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="E23" s="21">
         <v>6</v>
       </c>
     </row>
@@ -1404,7 +1407,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1428,90 +1431,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1519,4 +1522,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F100F1-EE96-46ED-97FC-5A13F6695C6E}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="163.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficer.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficer.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A2DA64-B43B-4860-A4D9-7DDF3A55C096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="處理說明" sheetId="3" r:id="rId3"/>
+    <sheet name="異動名單" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="128">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -357,13 +357,146 @@
   </si>
   <si>
     <t>2.生效日不可修改，需先刪除再新增</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>with DATA as (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  select </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   "EmpNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ,"AreaItem"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ,"EffectiveDate"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ,"IneffectiveDate"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ,"EmpClass"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ,ROW_NUMBER() OVER (Partition By "EmpNo"    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ORDER BY "EffectiveDate" Desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ) AS "ROWNUMBER"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        select * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        from "PfCoOfficer"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        where "EffectiveDate" &gt;= :startdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        union </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       )</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a."EmpNo"</t>
+  </si>
+  <si>
+    <t>,a."AreaItem"</t>
+  </si>
+  <si>
+    <t>,a."EffectiveDate"</t>
+  </si>
+  <si>
+    <t>,a."IneffectiveDate"</t>
+  </si>
+  <si>
+    <t>,a."EmpClass"</t>
+  </si>
+  <si>
+    <t>,nvl(b."EmpClass",'') as "PrevEmpClass"</t>
+  </si>
+  <si>
+    <t>,case when a."IneffectiveDate" &lt;= :enddate then '刪除－離職'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ELSE  ' '</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> end as "ChangeReason"</t>
+  </si>
+  <si>
+    <t>from DATA a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left join DATA b on b."EmpNo" =  a."EmpNo" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               and b.ROWNUMBER = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               and a."IneffectiveDate" &gt;= :enddate</t>
+  </si>
+  <si>
+    <t>where a.ROWNUMBER = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  and case when a."IneffectiveDate" &lt;= :enddate then 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           when a."EmpClass" &lt;&gt; nvl(b."EmpClass",a."EmpClass") then 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           else 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      end &gt; 0     </t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>參數</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        where "EffectiveDate" between :startdate and :enddate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>startdate 季初日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>enddate 季底日</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -627,7 +760,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -718,23 +851,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -770,23 +886,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -962,10 +1061,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1402,7 +1501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1525,7 +1624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F100F1-EE96-46ED-97FC-5A13F6695C6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1551,4 +1650,242 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficer.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfCoOfficer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB30F5BF-0BC7-4569-AD46-3E60584CD7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -125,10 +126,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -491,12 +488,15 @@
   <si>
     <t>enddate 季底日</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -760,7 +760,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,9 +776,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -816,9 +816,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -853,7 +853,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -888,7 +888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1061,11 +1061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1195,13 +1195,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="21">
         <v>6</v>
@@ -1212,10 +1212,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>24</v>
@@ -1229,10 +1229,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>24</v>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1250,20 +1250,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="25">
         <v>6</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1271,20 +1271,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="25">
         <v>6</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1292,20 +1292,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>53</v>
       </c>
       <c r="E14" s="25">
         <v>6</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1313,23 +1313,23 @@
         <v>7</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="25">
         <v>20</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1337,23 +1337,23 @@
         <v>8</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="25">
         <v>20</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1361,23 +1361,23 @@
         <v>9</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="25">
         <v>20</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -1391,13 +1391,13 @@
         <v>22</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="21">
         <v>1</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1408,16 +1408,16 @@
         <v>21</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="21">
         <v>1</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1431,7 +1431,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E20" s="21"/>
     </row>
@@ -1440,13 +1440,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="E21" s="21">
         <v>6</v>
@@ -1457,13 +1457,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>32</v>
-      </c>
       <c r="D22" s="17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="E22" s="21"/>
     </row>
@@ -1472,13 +1472,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>34</v>
-      </c>
       <c r="D23" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="21">
         <v>6</v>
@@ -1501,7 +1501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1530,90 +1530,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1638,12 +1638,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1653,10 +1653,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -1667,221 +1667,221 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
         <v>93</v>
-      </c>
-      <c r="B9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
         <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
